--- a/Excel/DungeonTransferConfig.xlsx
+++ b/Excel/DungeonTransferConfig.xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WeiJingGame_Hot\trunk_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74FE896-C0A1-46C1-B628-DD8BD44836A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB04B0F7-3E58-4631-AF80-D433A7196ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonTransferProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -566,154 +556,156 @@
     <t>24409,2910,-11440</t>
   </si>
   <si>
+    <t>15161,2910,-5520</t>
+  </si>
+  <si>
+    <t>20397,2910,3676</t>
+  </si>
+  <si>
+    <t>231,2910,-1310</t>
+  </si>
+  <si>
+    <t>15993,2910,-7254</t>
+  </si>
+  <si>
+    <t>15110,2910,10008</t>
+  </si>
+  <si>
+    <t>14457,2910,-7165</t>
+  </si>
+  <si>
+    <t>38905,2910,14113</t>
+  </si>
+  <si>
+    <t>38443,2910,13759</t>
+  </si>
+  <si>
+    <t>7832,2910,-6881</t>
+  </si>
+  <si>
+    <t>13618,2910,6375</t>
+  </si>
+  <si>
+    <t>14432,2910,-6764</t>
+  </si>
+  <si>
+    <t>38484,2910,13914</t>
+  </si>
+  <si>
+    <t>-5260,2910,-7262</t>
+  </si>
+  <si>
+    <t>6724,2910,-8579</t>
+  </si>
+  <si>
+    <t>14701,2946,-6103</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15400,2902,-6336</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14300,2910,-4400</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14400,2910,-4300</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25700,2910,-3300</t>
+  </si>
+  <si>
+    <t>20300,2910,-4900</t>
+  </si>
+  <si>
+    <t>26100,2910,-7300</t>
+  </si>
+  <si>
+    <t>14400,2900,-7200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下洞穴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗忘废墟</t>
+  </si>
+  <si>
+    <t>遗忘废墟去绿洲小径</t>
+  </si>
+  <si>
+    <t>25310,2911,-4375</t>
+  </si>
+  <si>
+    <t>15369,2911,-4216</t>
+  </si>
+  <si>
+    <t>14372,2911,-7262</t>
+  </si>
+  <si>
+    <t>21591,2911,-5370</t>
+  </si>
+  <si>
+    <t>17670,2911,-7520</t>
+  </si>
+  <si>
+    <t>14611,2911,-2951</t>
+  </si>
+  <si>
+    <t>15969,2911,-1212</t>
+  </si>
+  <si>
+    <t>28843,2911,-6720</t>
+  </si>
+  <si>
+    <t>14883,3467,-7290</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21779,3066,-2383</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23656,3048,-1746</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24258,3048,-1821</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14983,2910,-5997</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15161,2957,-5520</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封之路去冰封魔穴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14870,3466,-7600</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24103,3081,-4532</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25092,3010,-4487</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22823,2910,-4349</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>22343,2910,2283</t>
-  </si>
-  <si>
-    <t>22823,2910,-4349</t>
-  </si>
-  <si>
-    <t>15161,2910,-5520</t>
-  </si>
-  <si>
-    <t>20397,2910,3676</t>
-  </si>
-  <si>
-    <t>231,2910,-1310</t>
-  </si>
-  <si>
-    <t>15993,2910,-7254</t>
-  </si>
-  <si>
-    <t>15110,2910,10008</t>
-  </si>
-  <si>
-    <t>14457,2910,-7165</t>
-  </si>
-  <si>
-    <t>38905,2910,14113</t>
-  </si>
-  <si>
-    <t>38443,2910,13759</t>
-  </si>
-  <si>
-    <t>7832,2910,-6881</t>
-  </si>
-  <si>
-    <t>13618,2910,6375</t>
-  </si>
-  <si>
-    <t>14432,2910,-6764</t>
-  </si>
-  <si>
-    <t>38484,2910,13914</t>
-  </si>
-  <si>
-    <t>-5260,2910,-7262</t>
-  </si>
-  <si>
-    <t>6724,2910,-8579</t>
-  </si>
-  <si>
-    <t>14701,2946,-6103</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15400,2902,-6336</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14300,2910,-4400</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14400,2910,-4300</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>25700,2910,-3300</t>
-  </si>
-  <si>
-    <t>20300,2910,-4900</t>
-  </si>
-  <si>
-    <t>26100,2910,-7300</t>
-  </si>
-  <si>
-    <t>14400,2900,-7200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下洞穴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗忘废墟</t>
-  </si>
-  <si>
-    <t>遗忘废墟去绿洲小径</t>
-  </si>
-  <si>
-    <t>25310,2911,-4375</t>
-  </si>
-  <si>
-    <t>15369,2911,-4216</t>
-  </si>
-  <si>
-    <t>14372,2911,-7262</t>
-  </si>
-  <si>
-    <t>21591,2911,-5370</t>
-  </si>
-  <si>
-    <t>17670,2911,-7520</t>
-  </si>
-  <si>
-    <t>14611,2911,-2951</t>
-  </si>
-  <si>
-    <t>15969,2911,-1212</t>
-  </si>
-  <si>
-    <t>28843,2911,-6720</t>
-  </si>
-  <si>
-    <t>14883,3467,-7290</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>21779,3066,-2383</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>23656,3048,-1746</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>24258,3048,-1821</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14983,2910,-5997</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15161,2957,-5520</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰封之路去冰封魔穴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14870,3466,-7600</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>24103,3081,-4532</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>25092,3010,-4487</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -852,7 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -871,16 +863,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1190,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1281,7 +1276,7 @@
         <v>68</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.3">
@@ -1388,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>131</v>
@@ -1433,7 +1428,7 @@
         <v>6</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>81</v>
@@ -1469,7 +1464,7 @@
         <v>1006</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E11" s="5">
         <v>10006</v>
@@ -1523,7 +1518,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>82</v>
@@ -1568,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>86</v>
@@ -1703,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>83</v>
@@ -1748,7 +1743,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>84</v>
@@ -1793,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H18" s="9" t="s">
         <v>85</v>
@@ -1838,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>87</v>
@@ -1962,7 +1957,7 @@
         <v>2003</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E22" s="5">
         <v>20003</v>
@@ -2061,7 +2056,7 @@
         <v>15</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>128</v>
@@ -2142,7 +2137,7 @@
         <v>2012</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E26" s="5">
         <v>20002</v>
@@ -2286,7 +2281,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H29" s="9"/>
       <c r="J29" s="1">
@@ -2374,7 +2369,7 @@
         <v>15</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>98</v>
@@ -2464,7 +2459,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>129</v>
@@ -2509,7 +2504,7 @@
         <v>15</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>103</v>
@@ -2554,7 +2549,7 @@
         <v>15</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H35" s="9" t="s">
         <v>97</v>
@@ -2599,7 +2594,7 @@
         <v>15</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>100</v>
@@ -2644,7 +2639,7 @@
         <v>15</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>101</v>
@@ -2734,7 +2729,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H39" s="9" t="s">
         <v>104</v>
@@ -2770,7 +2765,7 @@
         <v>3016</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E40" s="5">
         <v>30006</v>
@@ -2779,10 +2774,10 @@
         <v>16</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.3">
@@ -2887,7 +2882,7 @@
         <v>15</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H43" s="10" t="s">
         <v>108</v>
@@ -2980,7 +2975,7 @@
         <v>146</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J45" s="1">
         <v>14301</v>
@@ -3022,7 +3017,7 @@
         <v>15</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>106</v>
@@ -3111,8 +3106,8 @@
       <c r="F48" s="4">
         <v>15</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>148</v>
+      <c r="G48" s="12" t="s">
+        <v>191</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>107</v>
@@ -3156,8 +3151,8 @@
       <c r="F49" s="4">
         <v>15</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>149</v>
+      <c r="G49" s="12" t="s">
+        <v>192</v>
       </c>
       <c r="H49" s="11" t="s">
         <v>113</v>
@@ -3202,7 +3197,7 @@
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H50" s="11" t="s">
         <v>111</v>
@@ -3247,7 +3242,7 @@
         <v>15</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H51" s="11" t="s">
         <v>112</v>
@@ -3292,7 +3287,7 @@
         <v>15</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H52" s="11" t="s">
         <v>115</v>
@@ -3337,7 +3332,7 @@
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H53" s="11" t="s">
         <v>109</v>
@@ -3382,7 +3377,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J54" s="1">
         <v>231</v>
@@ -3424,7 +3419,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H55" s="9" t="s">
         <v>116</v>
@@ -3469,7 +3464,7 @@
         <v>15</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>118</v>
@@ -3514,7 +3509,7 @@
         <v>15</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>119</v>
@@ -3604,7 +3599,7 @@
         <v>15</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H59" s="11" t="s">
         <v>123</v>
@@ -3649,7 +3644,7 @@
         <v>15</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>126</v>
@@ -3694,7 +3689,7 @@
         <v>15</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H61" s="9" t="s">
         <v>117</v>
@@ -3739,7 +3734,7 @@
         <v>15</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>120</v>
@@ -3784,7 +3779,7 @@
         <v>15</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>121</v>
@@ -3829,7 +3824,7 @@
         <v>15</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H64" s="11" t="s">
         <v>124</v>
@@ -3874,7 +3869,7 @@
         <v>15</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H65" s="11" t="s">
         <v>125</v>
@@ -3919,7 +3914,7 @@
         <v>15</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H66" s="11" t="s">
         <v>127</v>

--- a/Excel/DungeonTransferConfig.xlsx
+++ b/Excel/DungeonTransferConfig.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB04B0F7-3E58-4631-AF80-D433A7196ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E3F749-F072-46AF-8B6F-FE8BF613C8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonTransferProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="194">
   <si>
     <t>Id</t>
   </si>
@@ -76,10 +89,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>死亡洞穴去石墓二层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>石墓一层去绿林郊外</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -313,9 +322,6 @@
     <t>16292,2812,-7514</t>
   </si>
   <si>
-    <t>7670,2938,-7206</t>
-  </si>
-  <si>
     <t>15819,2914,3879</t>
   </si>
   <si>
@@ -500,10 +506,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>7730,-55,-5266</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3690,6,-5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -706,6 +708,22 @@
   </si>
   <si>
     <t>22343,2910,2283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14793,2955,-7626</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7938,-55,-5266</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7938,-55,-5266</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下洞穴去石墓二层</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1185,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1207,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="3:18" x14ac:dyDescent="0.3">
@@ -1227,16 +1245,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="3:18" x14ac:dyDescent="0.3">
@@ -1247,16 +1265,16 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.3">
@@ -1273,10 +1291,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="3:18" x14ac:dyDescent="0.3">
@@ -1293,10 +1311,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="J7" s="1">
         <v>15200</v>
@@ -1338,10 +1356,10 @@
         <v>5</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1">
         <v>16292</v>
@@ -1383,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J9" s="1">
         <v>15400</v>
@@ -1428,10 +1446,10 @@
         <v>6</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J10" s="1">
         <v>14400</v>
@@ -1464,7 +1482,7 @@
         <v>1006</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E11" s="5">
         <v>10006</v>
@@ -1473,10 +1491,10 @@
         <v>12</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J11" s="1">
         <v>16800</v>
@@ -1518,10 +1536,10 @@
         <v>8</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J12" s="1">
         <v>14300</v>
@@ -1563,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J13" s="1">
         <v>14400</v>
@@ -1608,10 +1626,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>75</v>
+        <v>192</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="J14" s="1">
         <v>7670</v>
@@ -1653,10 +1671,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J15" s="1">
         <v>15819</v>
@@ -1698,10 +1716,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J16" s="1">
         <v>25700</v>
@@ -1734,7 +1752,7 @@
         <v>1012</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="E17" s="5">
         <v>10008</v>
@@ -1743,10 +1761,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J17" s="1">
         <v>20300</v>
@@ -1779,7 +1797,7 @@
         <v>1013</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="5">
         <v>10004</v>
@@ -1788,10 +1806,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J18" s="1">
         <v>26100</v>
@@ -1824,7 +1842,7 @@
         <v>1014</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="5">
         <v>10007</v>
@@ -1833,10 +1851,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J19" s="1">
         <v>25310</v>
@@ -1869,7 +1887,7 @@
         <v>2001</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="5">
         <v>20001</v>
@@ -1878,7 +1896,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H20" s="9"/>
       <c r="J20" s="1">
@@ -1912,7 +1930,7 @@
         <v>2002</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="5">
         <v>20002</v>
@@ -1921,10 +1939,10 @@
         <v>15</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J21" s="1">
         <v>15259</v>
@@ -1957,7 +1975,7 @@
         <v>2003</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E22" s="5">
         <v>20003</v>
@@ -1966,10 +1984,10 @@
         <v>15</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J22" s="1">
         <v>15756</v>
@@ -2002,7 +2020,7 @@
         <v>2004</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="5">
         <v>20004</v>
@@ -2011,10 +2029,10 @@
         <v>15</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J23" s="1">
         <v>14613</v>
@@ -2047,7 +2065,7 @@
         <v>2005</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E24" s="5">
         <v>20005</v>
@@ -2056,10 +2074,10 @@
         <v>15</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J24" s="1">
         <v>21779</v>
@@ -2092,7 +2110,7 @@
         <v>2011</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="5">
         <v>20001</v>
@@ -2101,10 +2119,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J25" s="1">
         <v>2139</v>
@@ -2137,7 +2155,7 @@
         <v>2012</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E26" s="5">
         <v>20002</v>
@@ -2146,10 +2164,10 @@
         <v>15</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J26" s="1">
         <v>5935</v>
@@ -2182,7 +2200,7 @@
         <v>2013</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E27" s="5">
         <v>20001</v>
@@ -2191,10 +2209,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J27" s="1">
         <v>13404</v>
@@ -2227,7 +2245,7 @@
         <v>2014</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="5">
         <v>20004</v>
@@ -2236,10 +2254,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J28" s="1">
         <v>18734</v>
@@ -2272,7 +2290,7 @@
         <v>3001</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E29" s="5">
         <v>30001</v>
@@ -2281,7 +2299,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H29" s="9"/>
       <c r="J29" s="1">
@@ -2315,7 +2333,7 @@
         <v>3002</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="5">
         <v>30002</v>
@@ -2324,10 +2342,10 @@
         <v>15</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J30" s="1">
         <v>13898</v>
@@ -2360,7 +2378,7 @@
         <v>3003</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31" s="5">
         <v>30003</v>
@@ -2369,10 +2387,10 @@
         <v>15</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J31" s="1">
         <v>14983</v>
@@ -2405,7 +2423,7 @@
         <v>3004</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" s="5">
         <v>30004</v>
@@ -2414,10 +2432,10 @@
         <v>15</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J32" s="1">
         <v>14000</v>
@@ -2450,7 +2468,7 @@
         <v>3005</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="5">
         <v>30005</v>
@@ -2459,10 +2477,10 @@
         <v>15</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J33" s="1">
         <v>14372</v>
@@ -2495,7 +2513,7 @@
         <v>3006</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" s="5">
         <v>30006</v>
@@ -2504,10 +2522,10 @@
         <v>15</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J34" s="1">
         <v>14883</v>
@@ -2540,7 +2558,7 @@
         <v>3011</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="5">
         <v>30001</v>
@@ -2549,10 +2567,10 @@
         <v>15</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J35" s="1">
         <v>21591</v>
@@ -2585,7 +2603,7 @@
         <v>3012</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E36" s="5">
         <v>30002</v>
@@ -2594,10 +2612,10 @@
         <v>15</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J36" s="1">
         <v>23656</v>
@@ -2630,7 +2648,7 @@
         <v>3013</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" s="5">
         <v>30002</v>
@@ -2639,10 +2657,10 @@
         <v>15</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J37" s="1">
         <v>24258</v>
@@ -2675,7 +2693,7 @@
         <v>3014</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E38" s="5">
         <v>30004</v>
@@ -2684,10 +2702,10 @@
         <v>15</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J38" s="1">
         <v>16698</v>
@@ -2720,7 +2738,7 @@
         <v>3015</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E39" s="5">
         <v>30005</v>
@@ -2729,10 +2747,10 @@
         <v>15</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J39" s="1">
         <v>25092</v>
@@ -2765,7 +2783,7 @@
         <v>3016</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E40" s="5">
         <v>30006</v>
@@ -2774,10 +2792,10 @@
         <v>16</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.3">
@@ -2785,7 +2803,7 @@
         <v>4001</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E41" s="5">
         <v>40001</v>
@@ -2794,7 +2812,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H41" s="9"/>
       <c r="J41" s="1">
@@ -2828,7 +2846,7 @@
         <v>4002</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E42" s="5">
         <v>40002</v>
@@ -2837,10 +2855,10 @@
         <v>15</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J42" s="1">
         <v>17650</v>
@@ -2873,7 +2891,7 @@
         <v>4003</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E43" s="5">
         <v>40003</v>
@@ -2882,10 +2900,10 @@
         <v>15</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J43" s="1">
         <v>17670</v>
@@ -2918,7 +2936,7 @@
         <v>4004</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E44" s="5">
         <v>40004</v>
@@ -2927,10 +2945,10 @@
         <v>15</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J44" s="1">
         <v>25645</v>
@@ -2963,7 +2981,7 @@
         <v>4005</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E45" s="5">
         <v>40005</v>
@@ -2972,10 +2990,10 @@
         <v>15</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J45" s="1">
         <v>14301</v>
@@ -3008,7 +3026,7 @@
         <v>4006</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46" s="5">
         <v>40006</v>
@@ -3017,10 +3035,10 @@
         <v>15</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J46" s="1">
         <v>14611</v>
@@ -3053,7 +3071,7 @@
         <v>4007</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E47" s="5">
         <v>40007</v>
@@ -3062,10 +3080,10 @@
         <v>15</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J47" s="1">
         <v>24409</v>
@@ -3098,7 +3116,7 @@
         <v>4011</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E48" s="5">
         <v>40001</v>
@@ -3107,10 +3125,10 @@
         <v>15</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J48" s="1">
         <v>22343</v>
@@ -3143,7 +3161,7 @@
         <v>4012</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E49" s="5">
         <v>40001</v>
@@ -3152,10 +3170,10 @@
         <v>15</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J49" s="1">
         <v>22823</v>
@@ -3188,7 +3206,7 @@
         <v>4013</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E50" s="5">
         <v>40003</v>
@@ -3197,10 +3215,10 @@
         <v>15</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J50" s="1">
         <v>15969</v>
@@ -3233,7 +3251,7 @@
         <v>4014</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E51" s="5">
         <v>40004</v>
@@ -3242,10 +3260,10 @@
         <v>15</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J51" s="1">
         <v>15161</v>
@@ -3278,7 +3296,7 @@
         <v>4015</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" s="5">
         <v>40006</v>
@@ -3287,10 +3305,10 @@
         <v>15</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J52" s="1">
         <v>28843</v>
@@ -3323,7 +3341,7 @@
         <v>4016</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E53" s="5">
         <v>40002</v>
@@ -3332,10 +3350,10 @@
         <v>15</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J53" s="1">
         <v>20397</v>
@@ -3368,7 +3386,7 @@
         <v>5001</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E54" s="5">
         <v>50001</v>
@@ -3377,7 +3395,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J54" s="1">
         <v>231</v>
@@ -3410,7 +3428,7 @@
         <v>5002</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E55" s="5">
         <v>50002</v>
@@ -3419,10 +3437,10 @@
         <v>15</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J55" s="1">
         <v>15993</v>
@@ -3455,7 +3473,7 @@
         <v>5003</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E56" s="5">
         <v>50003</v>
@@ -3464,10 +3482,10 @@
         <v>15</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J56" s="1">
         <v>15110</v>
@@ -3500,7 +3518,7 @@
         <v>5004</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E57" s="5">
         <v>50004</v>
@@ -3509,10 +3527,10 @@
         <v>15</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J57" s="1">
         <v>14457</v>
@@ -3545,7 +3563,7 @@
         <v>5005</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E58" s="5">
         <v>50005</v>
@@ -3554,10 +3572,10 @@
         <v>15</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J58" s="1">
         <v>3289</v>
@@ -3590,7 +3608,7 @@
         <v>5006</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E59" s="5">
         <v>50006</v>
@@ -3599,10 +3617,10 @@
         <v>15</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J59" s="1">
         <v>38905</v>
@@ -3635,7 +3653,7 @@
         <v>5007</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E60" s="5">
         <v>50007</v>
@@ -3644,10 +3662,10 @@
         <v>15</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J60" s="1">
         <v>38443</v>
@@ -3680,7 +3698,7 @@
         <v>5011</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E61" s="5">
         <v>50001</v>
@@ -3689,10 +3707,10 @@
         <v>15</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J61" s="1">
         <v>7832</v>
@@ -3725,7 +3743,7 @@
         <v>5012</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E62" s="5">
         <v>50002</v>
@@ -3734,10 +3752,10 @@
         <v>15</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J62" s="1">
         <v>13618</v>
@@ -3770,7 +3788,7 @@
         <v>5013</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E63" s="5">
         <v>50003</v>
@@ -3779,10 +3797,10 @@
         <v>15</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J63" s="1">
         <v>14432</v>
@@ -3815,7 +3833,7 @@
         <v>5014</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E64" s="5">
         <v>50004</v>
@@ -3824,10 +3842,10 @@
         <v>15</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J64" s="1">
         <v>38484</v>
@@ -3860,7 +3878,7 @@
         <v>5015</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E65" s="5">
         <v>50005</v>
@@ -3869,10 +3887,10 @@
         <v>15</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J65" s="1">
         <v>-5260</v>
@@ -3905,7 +3923,7 @@
         <v>5016</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E66" s="5">
         <v>50006</v>
@@ -3914,10 +3932,10 @@
         <v>15</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J66" s="1">
         <v>6724</v>

--- a/Excel/DungeonTransferConfig.xlsx
+++ b/Excel/DungeonTransferConfig.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E3F749-F072-46AF-8B6F-FE8BF613C8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28080" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonTransferProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
   <si>
     <t>Id</t>
   </si>
@@ -41,697 +22,587 @@
     <t>名字</t>
   </si>
   <si>
+    <t>地图ID</t>
+  </si>
+  <si>
+    <t>进入等级</t>
+  </si>
+  <si>
+    <t>位置【进入新场景出生点】</t>
+  </si>
+  <si>
+    <t>位置[传送门]</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
+    <t>MapID</t>
+  </si>
+  <si>
+    <t>EnterLv</t>
+  </si>
+  <si>
+    <t>BornPos</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>绿林小镇</t>
   </si>
   <si>
+    <t>720,127,-257</t>
+  </si>
+  <si>
+    <t>14701,2946,-6103</t>
+  </si>
+  <si>
     <t>矿洞一层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15200,2930,-6764</t>
+  </si>
+  <si>
+    <t>7938,-55,-5266</t>
   </si>
   <si>
     <t>矿洞二层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16292,2912,-7514</t>
+  </si>
+  <si>
+    <t>16086,2957,4188</t>
   </si>
   <si>
     <t>绿林郊外</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15400,2902,-6336</t>
+  </si>
+  <si>
+    <t>3690,6,-5</t>
   </si>
   <si>
     <t>绿林深处</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14400,2900,-7200</t>
+  </si>
+  <si>
+    <t>26539,2952,-3338</t>
+  </si>
+  <si>
+    <t>地下洞穴</t>
+  </si>
+  <si>
+    <t>16800,2910,-6970</t>
+  </si>
+  <si>
+    <t>20059,2951,-5494</t>
   </si>
   <si>
     <t>石墓一层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14300,2910,-4400</t>
+  </si>
+  <si>
+    <t>26595,2956,-7308</t>
   </si>
   <si>
     <t>石墓二层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14400,2910,-4300</t>
+  </si>
+  <si>
+    <t>25444,2957,-4368</t>
   </si>
   <si>
     <t>矿洞一层去绿林小镇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14793,2955,-7626</t>
   </si>
   <si>
     <t>矿洞二层去矿洞一层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15819,2914,3879</t>
+  </si>
+  <si>
+    <t>16599,2957,-7899</t>
   </si>
   <si>
     <t>绿林深处去绿林郊外</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25700,2910,-3300</t>
+  </si>
+  <si>
+    <t>13761,2957,-7344</t>
+  </si>
+  <si>
+    <t>地下洞穴去石墓二层</t>
+  </si>
+  <si>
+    <t>20300,2910,-4900</t>
+  </si>
+  <si>
+    <t>16407,2957,-7531</t>
   </si>
   <si>
     <t>石墓一层去绿林郊外</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>26100,2910,-7300</t>
+  </si>
+  <si>
+    <t>14072,2957,-4479</t>
   </si>
   <si>
     <t>石墓二层去石墓一层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25310,2911,-4375</t>
+  </si>
+  <si>
+    <t>14094,2957,-4468</t>
   </si>
   <si>
     <t>热荒沙漠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14532,2895,-5271</t>
   </si>
   <si>
     <t>绿洲小径</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15259,2895,-9335</t>
+  </si>
+  <si>
+    <t>1765,2957,-7900</t>
+  </si>
+  <si>
+    <t>遗忘废墟</t>
+  </si>
+  <si>
+    <t>15756,2895,-7717</t>
+  </si>
+  <si>
+    <t>5875,2941,-4603</t>
   </si>
   <si>
     <t>地牢一层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14613,2895,-7096</t>
+  </si>
+  <si>
+    <t>12991,2957,-7982</t>
   </si>
   <si>
     <t>地牢二层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21779,3066,-2383</t>
+  </si>
+  <si>
+    <t>18262,2850,3456</t>
   </si>
   <si>
     <t>绿洲小径去热荒沙漠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2139,2895,-7394</t>
+  </si>
+  <si>
+    <t>15894,2945,-9231</t>
+  </si>
+  <si>
+    <t>遗忘废墟去绿洲小径</t>
+  </si>
+  <si>
+    <t>5935,2895,-5220</t>
+  </si>
+  <si>
+    <t>16373,2957,-7896</t>
   </si>
   <si>
     <t>地牢一层去热荒沙漠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13404,2895,-7275</t>
+  </si>
+  <si>
+    <t>14039,2850,-7419</t>
   </si>
   <si>
     <t>地牢二层去地牢一层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18734,2814,3021</t>
+  </si>
+  <si>
+    <t>23279,3104,-2715</t>
   </si>
   <si>
     <t>冰封城镇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15369,2911,-4216</t>
   </si>
   <si>
     <t>冰封森林</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13898,2905,-4124</t>
+  </si>
+  <si>
+    <t>22360,2957,-5238</t>
   </si>
   <si>
     <t>冰封堡垒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14983,2910,-5997</t>
+  </si>
+  <si>
+    <t>23714,3101,-950</t>
   </si>
   <si>
     <t>千针叶林</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14000,2905,-4277</t>
+  </si>
+  <si>
+    <t>24955,3101,-1754</t>
   </si>
   <si>
     <t>冰封之路</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14372,2911,-7262</t>
+  </si>
+  <si>
+    <t>16617,2957,4105</t>
   </si>
   <si>
     <t>冰封魔穴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14883,3467,-7290</t>
+  </si>
+  <si>
+    <t>25255,3112,-5296</t>
   </si>
   <si>
     <t>冰封森林去冰封城镇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>21591,2911,-5370</t>
+  </si>
+  <si>
+    <t>13264,2957,-4147</t>
   </si>
   <si>
     <t>冰封堡垒去冰封森林</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>23656,3048,-1746</t>
+  </si>
+  <si>
+    <t>14133,2944,-6107</t>
   </si>
   <si>
     <t>千针叶林去冰封森林</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24258,3048,-1821</t>
+  </si>
+  <si>
+    <t>13311,2957,-4128</t>
   </si>
   <si>
     <t>冰封之路去千针叶林</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>16698,2910,3021</t>
+  </si>
+  <si>
+    <t>14322,2957,-8063</t>
   </si>
   <si>
     <t>冰封魔穴去冰封之路</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25092,3010,-4487</t>
+  </si>
+  <si>
+    <t>14623,3508,-8052</t>
+  </si>
+  <si>
+    <t>冰封之路去冰封魔穴</t>
+  </si>
+  <si>
+    <t>14870,3466,-7600</t>
+  </si>
+  <si>
+    <t>24103,3081,-4532</t>
   </si>
   <si>
     <t>暮色城镇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18834,2910,-4755</t>
   </si>
   <si>
     <t>暮色郊外</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>17650,2910,-7510</t>
+  </si>
+  <si>
+    <t>23427,2957,-4118</t>
   </si>
   <si>
     <t>暮色森林</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>17670,2911,-7520</t>
+  </si>
+  <si>
+    <t>20897,2957,3513</t>
   </si>
   <si>
     <t>暮色矿洞一层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>25645,2910,-6362</t>
+  </si>
+  <si>
+    <t>16198,2957,-734</t>
   </si>
   <si>
     <t>暮色矿洞二层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14301,2910,2212</t>
+  </si>
+  <si>
+    <t>15161,2957,-5520</t>
   </si>
   <si>
     <t>裂石峡谷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14611,2911,-2951</t>
+  </si>
+  <si>
+    <t>22410,2957,1628</t>
   </si>
   <si>
     <t>地狱裂谷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>24409,2910,-11440</t>
+  </si>
+  <si>
+    <t>29005,2957,-6268</t>
   </si>
   <si>
     <t>暮色郊外去暮色城镇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22823,2910,-4349</t>
+  </si>
+  <si>
+    <t>17611,2957,-8697</t>
   </si>
   <si>
     <t>裂石峡谷去暮色城镇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>22343,2910,2283</t>
+  </si>
+  <si>
+    <t>14366,2957,-3264</t>
   </si>
   <si>
     <t>暮色矿洞去暮色森林</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15969,2911,-1212</t>
+  </si>
+  <si>
+    <t>26210,2957,-6360</t>
   </si>
   <si>
     <t>暮色矿洞二层去暮色矿洞一层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15161,2910,-5520</t>
+  </si>
+  <si>
+    <t>14195,2957,2538</t>
   </si>
   <si>
     <t>地狱裂谷去裂石峡谷</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>28843,2911,-6720</t>
+  </si>
+  <si>
+    <t>24361,2957,-12054</t>
   </si>
   <si>
     <t>暮色森林去郊外</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20397,2910,3676</t>
+  </si>
+  <si>
+    <t>17666,2957,-8371</t>
   </si>
   <si>
     <t>黑暗小镇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>231,2910,-1310</t>
   </si>
   <si>
     <t>诡异小径</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15993,2910,-7254</t>
+  </si>
+  <si>
+    <t>7906,2942,-6310</t>
   </si>
   <si>
     <t>腐蚀之地</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15110,2910,10008</t>
+  </si>
+  <si>
+    <t>13625,2957,6966</t>
   </si>
   <si>
     <t>黑暗走廊一层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14457,2910,-7165</t>
+  </si>
+  <si>
+    <t>13788,2957,-7394</t>
   </si>
   <si>
     <t>黑暗走廊二层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3289,2814,22929</t>
+  </si>
+  <si>
+    <t>39327,2656,14200</t>
   </si>
   <si>
     <t>黑暗走廊三层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>38905,2910,14113</t>
+  </si>
+  <si>
+    <t>-5601,2798,-8027</t>
   </si>
   <si>
     <t>黑暗之心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>38443,2910,13759</t>
+  </si>
+  <si>
+    <t>5913,2385,-9125</t>
   </si>
   <si>
     <t>诡异小径去黑暗小镇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7832,2910,-6881</t>
+  </si>
+  <si>
+    <t>15780,2957,-7661</t>
   </si>
   <si>
     <t>腐蚀之地去诡异小径</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13618,2910,6375</t>
+  </si>
+  <si>
+    <t>14941,2957,10336</t>
   </si>
   <si>
     <t>黑暗走廊一层去腐蚀之地</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14432,2910,-6764</t>
+  </si>
+  <si>
+    <t>14105,2873,-7394</t>
   </si>
   <si>
     <t>黑暗走廊二层去一层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>38484,2910,13914</t>
+  </si>
+  <si>
+    <t>3305,2847,23641</t>
   </si>
   <si>
     <t>黑暗走廊三层去二层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5260,2910,-7262</t>
+  </si>
+  <si>
+    <t>39424,2595,14222</t>
   </si>
   <si>
     <t>黑暗之心去黑暗走廊三层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnterLv</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>720,127,-257</t>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BornPos</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置[传送门]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>位置【进入新场景出生点】</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15200,2930,-6764</t>
-  </si>
-  <si>
-    <t>16292,2812,-7514</t>
-  </si>
-  <si>
-    <t>15819,2914,3879</t>
-  </si>
-  <si>
-    <t>18734,2814,3021</t>
-  </si>
-  <si>
-    <t>3289,2814,22929</t>
-  </si>
-  <si>
-    <t>16086,2957,4188</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16599,2957,-7899</t>
-  </si>
-  <si>
-    <t>26539,2952,-3338</t>
-  </si>
-  <si>
-    <t>26595,2956,-7308</t>
-  </si>
-  <si>
-    <t>13761,2957,-7344</t>
-  </si>
-  <si>
-    <t>16407,2957,-7531</t>
-  </si>
-  <si>
-    <t>14072,2957,-4479</t>
-  </si>
-  <si>
-    <t>25444,2957,-4368</t>
-  </si>
-  <si>
-    <t>14094,2957,-4468</t>
-  </si>
-  <si>
-    <t>20059,2951,-5494</t>
-  </si>
-  <si>
-    <t>1765,2957,-7900</t>
-  </si>
-  <si>
-    <t>12991,2957,-7982</t>
-  </si>
-  <si>
-    <t>15894,2945,-9231</t>
-  </si>
-  <si>
-    <t>5875,2941,-4603</t>
-  </si>
-  <si>
-    <t>16373,2957,-7896</t>
-  </si>
-  <si>
-    <t>14039,2850,-7419</t>
-  </si>
-  <si>
-    <t>23279,3104,-2715</t>
-  </si>
-  <si>
-    <t>22360,2957,-5238</t>
-  </si>
-  <si>
-    <t>13264,2957,-4147</t>
-  </si>
-  <si>
-    <t>23714,3101,-950</t>
-  </si>
-  <si>
-    <t>24955,3101,-1754</t>
-  </si>
-  <si>
-    <t>14133,2944,-6107</t>
-  </si>
-  <si>
-    <t>13311,2957,-4128</t>
-  </si>
-  <si>
-    <t>14322,2957,-8063</t>
-  </si>
-  <si>
-    <t>25255,3112,-5296</t>
-  </si>
-  <si>
-    <t>14623,3508,-8052</t>
-  </si>
-  <si>
-    <t>23427,2957,-4118</t>
-  </si>
-  <si>
-    <t>22410,2957,1628</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>17611,2957,-8697</t>
-  </si>
-  <si>
-    <t>20897,2957,3513</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>17666,2957,-8371</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16198,2957,-734</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>26210,2957,-6360</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14195,2957,2538</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14366,2957,-3264</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>29005,2957,-6268</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>24361,2957,-12054</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7906,2942,-6310</t>
-  </si>
-  <si>
-    <t>15780,2957,-7661</t>
-  </si>
-  <si>
-    <t>13625,2957,6966</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13788,2957,-7394</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14941,2957,10336</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14105,2873,-7394</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>39327,2656,14200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5601,2798,-8027</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3305,2847,23641</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>39424,2595,14222</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>5913,2385,-9125</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6724,2910,-8579</t>
   </si>
   <si>
     <t>39383,2607,14260</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18262,2850,3456</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>16617,2957,4105</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3690,6,-5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14532,2895,-5271</t>
-  </si>
-  <si>
-    <t>15259,2895,-9335</t>
-  </si>
-  <si>
-    <t>15756,2895,-7717</t>
-  </si>
-  <si>
-    <t>14613,2895,-7096</t>
-  </si>
-  <si>
-    <t>2139,2895,-7394</t>
-  </si>
-  <si>
-    <t>5935,2895,-5220</t>
-  </si>
-  <si>
-    <t>13404,2895,-7275</t>
-  </si>
-  <si>
-    <t>14000,2905,-4277</t>
-  </si>
-  <si>
-    <t>13898,2905,-4124</t>
-  </si>
-  <si>
-    <t>16800,2910,-6970</t>
-  </si>
-  <si>
-    <t>16698,2910,3021</t>
-  </si>
-  <si>
-    <t>18834,2910,-4755</t>
-  </si>
-  <si>
-    <t>17650,2910,-7510</t>
-  </si>
-  <si>
-    <t>25645,2910,-6362</t>
-  </si>
-  <si>
-    <t>14301,2910,2212</t>
-  </si>
-  <si>
-    <t>24409,2910,-11440</t>
-  </si>
-  <si>
-    <t>15161,2910,-5520</t>
-  </si>
-  <si>
-    <t>20397,2910,3676</t>
-  </si>
-  <si>
-    <t>231,2910,-1310</t>
-  </si>
-  <si>
-    <t>15993,2910,-7254</t>
-  </si>
-  <si>
-    <t>15110,2910,10008</t>
-  </si>
-  <si>
-    <t>14457,2910,-7165</t>
-  </si>
-  <si>
-    <t>38905,2910,14113</t>
-  </si>
-  <si>
-    <t>38443,2910,13759</t>
-  </si>
-  <si>
-    <t>7832,2910,-6881</t>
-  </si>
-  <si>
-    <t>13618,2910,6375</t>
-  </si>
-  <si>
-    <t>14432,2910,-6764</t>
-  </si>
-  <si>
-    <t>38484,2910,13914</t>
-  </si>
-  <si>
-    <t>-5260,2910,-7262</t>
-  </si>
-  <si>
-    <t>6724,2910,-8579</t>
-  </si>
-  <si>
-    <t>14701,2946,-6103</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15400,2902,-6336</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14300,2910,-4400</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14400,2910,-4300</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>25700,2910,-3300</t>
-  </si>
-  <si>
-    <t>20300,2910,-4900</t>
-  </si>
-  <si>
-    <t>26100,2910,-7300</t>
-  </si>
-  <si>
-    <t>14400,2900,-7200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下洞穴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>遗忘废墟</t>
-  </si>
-  <si>
-    <t>遗忘废墟去绿洲小径</t>
-  </si>
-  <si>
-    <t>25310,2911,-4375</t>
-  </si>
-  <si>
-    <t>15369,2911,-4216</t>
-  </si>
-  <si>
-    <t>14372,2911,-7262</t>
-  </si>
-  <si>
-    <t>21591,2911,-5370</t>
-  </si>
-  <si>
-    <t>17670,2911,-7520</t>
-  </si>
-  <si>
-    <t>14611,2911,-2951</t>
-  </si>
-  <si>
-    <t>15969,2911,-1212</t>
-  </si>
-  <si>
-    <t>28843,2911,-6720</t>
-  </si>
-  <si>
-    <t>14883,3467,-7290</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>21779,3066,-2383</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>23656,3048,-1746</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>24258,3048,-1821</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14983,2910,-5997</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15161,2957,-5520</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰封之路去冰封魔穴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14870,3466,-7600</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>24103,3081,-4532</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>25092,3010,-4487</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>22823,2910,-4349</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>22343,2910,2283</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14793,2955,-7626</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7938,-55,-5266</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7938,-55,-5266</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>地下洞穴去石墓二层</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,42 +611,178 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -790,12 +797,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -826,8 +1019,8 @@
       <top style="hair">
         <color theme="1" tint="0.499984740745262"/>
       </top>
-      <bottom style="hair">
-        <color theme="1" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,8 +1034,8 @@
       <top style="hair">
         <color theme="1" tint="0.499984740745262"/>
       </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
+      <bottom style="hair">
+        <color theme="1" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,60 +1050,344 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{3419F47C-10D9-40D3-A53A-442EC37C9F70}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1195,19 +1672,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C3:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
@@ -1217,7 +1694,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1225,96 +1702,96 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
       <c r="C6" s="3">
         <v>1001</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
         <v>10001</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>67</v>
+      <c r="G6" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:18">
       <c r="C7" s="3">
         <v>1002</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7">
         <v>10002</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>72</v>
+      <c r="G7" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1">
         <v>15200</v>
@@ -1342,24 +1819,24 @@
         <v>15200,2930,-6764</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:18">
       <c r="C8" s="3">
         <v>1003</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4">
         <v>10003</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>77</v>
+      <c r="G8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="J8" s="1">
         <v>16292</v>
@@ -1387,24 +1864,24 @@
         <v>16292,2812,-7514</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:18">
       <c r="C9" s="3">
         <v>1004</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="5">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4">
         <v>10004</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>128</v>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="J9" s="1">
         <v>15400</v>
@@ -1432,24 +1909,24 @@
         <v>15400,2800,-6336</v>
       </c>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:18">
       <c r="C10" s="3">
         <v>1005</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4">
         <v>10005</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>79</v>
+      <c r="G10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="J10" s="1">
         <v>14400</v>
@@ -1477,24 +1954,24 @@
         <v>14400,2800,-7200</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:18">
       <c r="C11" s="3">
         <v>1006</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E11" s="5">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4">
         <v>10006</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>12</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>86</v>
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="J11" s="1">
         <v>16800</v>
@@ -1522,24 +1999,24 @@
         <v>16800,2910,-6970</v>
       </c>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:18">
       <c r="C12" s="3">
         <v>1007</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4">
         <v>10007</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>8</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>80</v>
+      <c r="G12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="J12" s="1">
         <v>14300</v>
@@ -1567,24 +2044,24 @@
         <v>14300,2800,-4400</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:18">
       <c r="C13" s="3">
         <v>1008</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4">
         <v>10008</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>84</v>
+      <c r="G13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="J13" s="1">
         <v>14400</v>
@@ -1612,24 +2089,24 @@
         <v>14400,2800,-4300</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:18">
       <c r="C14" s="3">
         <v>1009</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="5">
+        <v>38</v>
+      </c>
+      <c r="E14" s="4">
         <v>10001</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>190</v>
+      <c r="G14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="J14" s="1">
         <v>7670</v>
@@ -1657,24 +2134,24 @@
         <v>7670,2938,-7206</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:18">
       <c r="C15" s="3">
         <v>1010</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="4">
+        <v>40</v>
+      </c>
+      <c r="E15" s="7">
         <v>10002</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>78</v>
+      <c r="G15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="J15" s="1">
         <v>15819</v>
@@ -1702,24 +2179,24 @@
         <v>15819,2914,3879</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:18">
       <c r="C16" s="3">
         <v>1011</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="5">
+        <v>43</v>
+      </c>
+      <c r="E16" s="4">
         <v>10004</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>81</v>
+      <c r="G16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="J16" s="1">
         <v>25700</v>
@@ -1747,24 +2224,24 @@
         <v>25700,2800,-3300</v>
       </c>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:18">
       <c r="C17" s="3">
         <v>1012</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="4">
         <v>10008</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>82</v>
+      <c r="G17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="J17" s="1">
         <v>20300</v>
@@ -1792,24 +2269,24 @@
         <v>20300,2800,-4900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:18">
       <c r="C18" s="3">
         <v>1013</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="5">
+        <v>49</v>
+      </c>
+      <c r="E18" s="4">
         <v>10004</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>83</v>
+      <c r="G18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="J18" s="1">
         <v>26100</v>
@@ -1837,24 +2314,24 @@
         <v>26100,2800,-7300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:18">
       <c r="C19" s="3">
         <v>1014</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="5">
+        <v>52</v>
+      </c>
+      <c r="E19" s="4">
         <v>10007</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>85</v>
+      <c r="G19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="J19" s="1">
         <v>25310</v>
@@ -1882,23 +2359,23 @@
         <v>25310,2829,-4375</v>
       </c>
     </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:18">
       <c r="C20" s="3">
         <v>2001</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="5">
+        <v>55</v>
+      </c>
+      <c r="E20" s="4">
         <v>20001</v>
       </c>
-      <c r="F20" s="5">
-        <v>15</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H20" s="9"/>
+      <c r="F20" s="4">
+        <v>15</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="6"/>
       <c r="J20" s="1">
         <v>14532</v>
       </c>
@@ -1925,24 +2402,24 @@
         <v>14532,2895,-5271</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:18">
       <c r="C21" s="3">
         <v>2002</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="5">
+        <v>57</v>
+      </c>
+      <c r="E21" s="4">
         <v>20002</v>
       </c>
-      <c r="F21" s="5">
-        <v>15</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>87</v>
+      <c r="F21" s="4">
+        <v>15</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="J21" s="1">
         <v>15259</v>
@@ -1970,24 +2447,24 @@
         <v>15259,2895,-9335</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:18">
       <c r="C22" s="3">
         <v>2003</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" s="5">
+        <v>60</v>
+      </c>
+      <c r="E22" s="4">
         <v>20003</v>
       </c>
-      <c r="F22" s="5">
-        <v>15</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>90</v>
+      <c r="F22" s="4">
+        <v>15</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="J22" s="1">
         <v>15756</v>
@@ -2015,24 +2492,24 @@
         <v>15756,2895,-7717</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:18">
       <c r="C23" s="3">
         <v>2004</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="5">
+        <v>63</v>
+      </c>
+      <c r="E23" s="4">
         <v>20004</v>
       </c>
-      <c r="F23" s="5">
-        <v>15</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>88</v>
+      <c r="F23" s="4">
+        <v>15</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="J23" s="1">
         <v>14613</v>
@@ -2060,24 +2537,24 @@
         <v>14613,2895,-7096</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:18">
       <c r="C24" s="3">
         <v>2005</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="5">
+        <v>66</v>
+      </c>
+      <c r="E24" s="4">
         <v>20005</v>
       </c>
-      <c r="F24" s="5">
-        <v>15</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>126</v>
+      <c r="F24" s="4">
+        <v>15</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="J24" s="1">
         <v>21779</v>
@@ -2105,24 +2582,24 @@
         <v>21779,2895,-2383</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:18">
       <c r="C25" s="3">
         <v>2011</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E25" s="5">
+        <v>69</v>
+      </c>
+      <c r="E25" s="4">
         <v>20001</v>
       </c>
-      <c r="F25" s="5">
-        <v>15</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>89</v>
+      <c r="F25" s="4">
+        <v>15</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="J25" s="1">
         <v>2139</v>
@@ -2150,24 +2627,24 @@
         <v>2139,2895,-7394</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:18">
       <c r="C26" s="3">
         <v>2012</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="5">
+        <v>72</v>
+      </c>
+      <c r="E26" s="4">
         <v>20002</v>
       </c>
-      <c r="F26" s="5">
-        <v>15</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>91</v>
+      <c r="F26" s="4">
+        <v>15</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="J26" s="1">
         <v>5935</v>
@@ -2195,24 +2672,24 @@
         <v>5935,2895,-5220</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:18">
       <c r="C27" s="3">
         <v>2013</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E27" s="5">
+        <v>75</v>
+      </c>
+      <c r="E27" s="4">
         <v>20001</v>
       </c>
-      <c r="F27" s="5">
-        <v>15</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>92</v>
+      <c r="F27" s="4">
+        <v>15</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="J27" s="1">
         <v>13404</v>
@@ -2240,24 +2717,24 @@
         <v>13404,2895,-7275</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:18">
       <c r="C28" s="3">
         <v>2014</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="5">
+        <v>78</v>
+      </c>
+      <c r="E28" s="4">
         <v>20004</v>
       </c>
-      <c r="F28" s="5">
-        <v>15</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>93</v>
+      <c r="F28" s="4">
+        <v>15</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="J28" s="1">
         <v>18734</v>
@@ -2285,23 +2762,23 @@
         <v>18734,2814,3021</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:18">
       <c r="C29" s="3">
         <v>3001</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="5">
+        <v>81</v>
+      </c>
+      <c r="E29" s="4">
         <v>30001</v>
       </c>
-      <c r="F29" s="5">
-        <v>15</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H29" s="9"/>
+      <c r="F29" s="4">
+        <v>15</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="6"/>
       <c r="J29" s="1">
         <v>15369</v>
       </c>
@@ -2328,24 +2805,24 @@
         <v>15369,2829,-4216</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:18">
       <c r="C30" s="3">
         <v>3002</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="5">
+        <v>83</v>
+      </c>
+      <c r="E30" s="4">
         <v>30002</v>
       </c>
-      <c r="F30" s="5">
-        <v>15</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>94</v>
+      <c r="F30" s="4">
+        <v>15</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="J30" s="1">
         <v>13898</v>
@@ -2373,24 +2850,24 @@
         <v>13898,2905,-4124</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:18">
       <c r="C31" s="3">
         <v>3003</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="5">
+        <v>86</v>
+      </c>
+      <c r="E31" s="4">
         <v>30003</v>
       </c>
-      <c r="F31" s="5">
-        <v>15</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>96</v>
+      <c r="F31" s="4">
+        <v>15</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="J31" s="1">
         <v>14983</v>
@@ -2418,24 +2895,24 @@
         <v>14983,2910,-5997</v>
       </c>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:18">
       <c r="C32" s="3">
         <v>3004</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="5">
+        <v>89</v>
+      </c>
+      <c r="E32" s="4">
         <v>30004</v>
       </c>
-      <c r="F32" s="5">
-        <v>15</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>97</v>
+      <c r="F32" s="4">
+        <v>15</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="J32" s="1">
         <v>14000</v>
@@ -2463,24 +2940,24 @@
         <v>14000,2905,-4277</v>
       </c>
     </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:18">
       <c r="C33" s="3">
         <v>3005</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="5">
+        <v>92</v>
+      </c>
+      <c r="E33" s="4">
         <v>30005</v>
       </c>
-      <c r="F33" s="5">
-        <v>15</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>127</v>
+      <c r="F33" s="4">
+        <v>15</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="J33" s="1">
         <v>14372</v>
@@ -2508,24 +2985,24 @@
         <v>14372,2829,-7262</v>
       </c>
     </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:18">
       <c r="C34" s="3">
         <v>3006</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="5">
+        <v>95</v>
+      </c>
+      <c r="E34" s="4">
         <v>30006</v>
       </c>
-      <c r="F34" s="5">
-        <v>15</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>101</v>
+      <c r="F34" s="4">
+        <v>15</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="J34" s="1">
         <v>14883</v>
@@ -2553,24 +3030,24 @@
         <v>14883,3213,-7290</v>
       </c>
     </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:18">
       <c r="C35" s="3">
         <v>3011</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="5">
+        <v>98</v>
+      </c>
+      <c r="E35" s="4">
         <v>30001</v>
       </c>
-      <c r="F35" s="5">
-        <v>15</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>95</v>
+      <c r="F35" s="4">
+        <v>15</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="J35" s="1">
         <v>21591</v>
@@ -2598,24 +3075,24 @@
         <v>21591,2829,-5370</v>
       </c>
     </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:18">
       <c r="C36" s="3">
         <v>3012</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="5">
+        <v>101</v>
+      </c>
+      <c r="E36" s="4">
         <v>30002</v>
       </c>
-      <c r="F36" s="5">
-        <v>15</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>98</v>
+      <c r="F36" s="4">
+        <v>15</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="J36" s="1">
         <v>23656</v>
@@ -2643,24 +3120,24 @@
         <v>23656,2905,-1746</v>
       </c>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:18">
       <c r="C37" s="3">
         <v>3013</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="5">
+        <v>104</v>
+      </c>
+      <c r="E37" s="4">
         <v>30002</v>
       </c>
-      <c r="F37" s="5">
-        <v>15</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>99</v>
+      <c r="F37" s="4">
+        <v>15</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="J37" s="1">
         <v>24258</v>
@@ -2688,24 +3165,24 @@
         <v>24258,2905,-1821</v>
       </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:18">
       <c r="C38" s="3">
         <v>3014</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="5">
+        <v>107</v>
+      </c>
+      <c r="E38" s="4">
         <v>30004</v>
       </c>
-      <c r="F38" s="5">
-        <v>15</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>100</v>
+      <c r="F38" s="4">
+        <v>15</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="J38" s="1">
         <v>16698</v>
@@ -2733,24 +3210,24 @@
         <v>16698,2910,3021</v>
       </c>
     </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:18">
       <c r="C39" s="3">
         <v>3015</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="5">
+        <v>110</v>
+      </c>
+      <c r="E39" s="4">
         <v>30005</v>
       </c>
-      <c r="F39" s="5">
-        <v>15</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>102</v>
+      <c r="F39" s="4">
+        <v>15</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="J39" s="1">
         <v>25092</v>
@@ -2778,43 +3255,43 @@
         <v>25092,2910,-4487</v>
       </c>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:8">
       <c r="C40" s="3">
         <v>3016</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="5">
+        <v>113</v>
+      </c>
+      <c r="E40" s="4">
         <v>30006</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="4">
         <v>16</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.3">
+      <c r="G40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18">
       <c r="C41" s="3">
         <v>4001</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="5">
+      <c r="D41" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="4">
         <v>40001</v>
       </c>
-      <c r="F41" s="5">
-        <v>15</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="H41" s="9"/>
+      <c r="F41" s="4">
+        <v>15</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="H41" s="6"/>
       <c r="J41" s="1">
         <v>18834</v>
       </c>
@@ -2841,24 +3318,24 @@
         <v>18834,2910,-4755</v>
       </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:18">
       <c r="C42" s="3">
         <v>4002</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="D42" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="4">
         <v>40002</v>
       </c>
-      <c r="F42" s="5">
-        <v>15</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>103</v>
+      <c r="F42" s="4">
+        <v>15</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="J42" s="1">
         <v>17650</v>
@@ -2886,24 +3363,24 @@
         <v>17650,2910,-7510</v>
       </c>
     </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:18">
       <c r="C43" s="3">
         <v>4003</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="5">
+      <c r="D43" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="4">
         <v>40003</v>
       </c>
-      <c r="F43" s="5">
-        <v>15</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>106</v>
+      <c r="F43" s="4">
+        <v>15</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="J43" s="1">
         <v>17670</v>
@@ -2931,24 +3408,24 @@
         <v>17670,2829,-7520</v>
       </c>
     </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:18">
       <c r="C44" s="3">
         <v>4004</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="5">
+      <c r="D44" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="4">
         <v>40004</v>
       </c>
-      <c r="F44" s="5">
-        <v>15</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>142</v>
+      <c r="F44" s="4">
+        <v>15</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="J44" s="1">
         <v>25645</v>
@@ -2976,24 +3453,24 @@
         <v>25645,2910,-6362</v>
       </c>
     </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:18">
       <c r="C45" s="3">
         <v>4005</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="D45" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" s="4">
         <v>40005</v>
       </c>
-      <c r="F45" s="5">
-        <v>15</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>183</v>
+      <c r="F45" s="4">
+        <v>15</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="J45" s="1">
         <v>14301</v>
@@ -3021,24 +3498,24 @@
         <v>14301,2910,2212</v>
       </c>
     </row>
-    <row r="46" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:18">
       <c r="C46" s="3">
         <v>4006</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E46" s="5">
+      <c r="D46" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="4">
         <v>40006</v>
       </c>
-      <c r="F46" s="5">
-        <v>15</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>175</v>
+      <c r="F46" s="4">
+        <v>15</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="J46" s="1">
         <v>14611</v>
@@ -3066,24 +3543,24 @@
         <v>14611,2829,-2951</v>
       </c>
     </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:18">
       <c r="C47" s="3">
         <v>4007</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E47" s="5">
+      <c r="D47" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E47" s="4">
         <v>40007</v>
       </c>
-      <c r="F47" s="5">
-        <v>15</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>144</v>
+      <c r="F47" s="4">
+        <v>15</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="J47" s="1">
         <v>24409</v>
@@ -3111,24 +3588,24 @@
         <v>24409,2910,-11440</v>
       </c>
     </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:18">
       <c r="C48" s="3">
         <v>4011</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="D48" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="4">
         <v>40001</v>
       </c>
-      <c r="F48" s="4">
-        <v>15</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>105</v>
+      <c r="F48" s="7">
+        <v>15</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>138</v>
       </c>
       <c r="J48" s="1">
         <v>22343</v>
@@ -3156,24 +3633,24 @@
         <v>22343,2910,2283</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:18">
       <c r="C49" s="3">
         <v>4012</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="D49" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" s="4">
         <v>40001</v>
       </c>
-      <c r="F49" s="4">
-        <v>15</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>189</v>
+      <c r="F49" s="7">
+        <v>15</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>140</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="J49" s="1">
         <v>22823</v>
@@ -3201,24 +3678,24 @@
         <v>22823,2910,-4349</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:18">
       <c r="C50" s="3">
         <v>4013</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="5">
+      <c r="D50" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" s="4">
         <v>40003</v>
       </c>
-      <c r="F50" s="4">
-        <v>15</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>176</v>
+      <c r="F50" s="7">
+        <v>15</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="J50" s="1">
         <v>15969</v>
@@ -3246,24 +3723,24 @@
         <v>15969,2829,-1212</v>
       </c>
     </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:18">
       <c r="C51" s="3">
         <v>4014</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="D51" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="4">
         <v>40004</v>
       </c>
-      <c r="F51" s="4">
-        <v>15</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>145</v>
+      <c r="F51" s="7">
+        <v>15</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="J51" s="1">
         <v>15161</v>
@@ -3291,24 +3768,24 @@
         <v>15161,2910,-5520</v>
       </c>
     </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:18">
       <c r="C52" s="3">
         <v>4015</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="5">
+        <v>148</v>
+      </c>
+      <c r="E52" s="4">
         <v>40006</v>
       </c>
-      <c r="F52" s="4">
-        <v>15</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>177</v>
+      <c r="F52" s="7">
+        <v>15</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="J52" s="1">
         <v>28843</v>
@@ -3336,24 +3813,24 @@
         <v>28843,2829,-6720</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:18">
       <c r="C53" s="3">
         <v>4016</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" s="5">
+      <c r="D53" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E53" s="4">
         <v>40002</v>
       </c>
-      <c r="F53" s="4">
-        <v>15</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>146</v>
+      <c r="F53" s="7">
+        <v>15</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="J53" s="1">
         <v>20397</v>
@@ -3381,21 +3858,21 @@
         <v>20397,2910,3676</v>
       </c>
     </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:18">
       <c r="C54" s="3">
         <v>5001</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E54" s="5">
+        <v>154</v>
+      </c>
+      <c r="E54" s="4">
         <v>50001</v>
       </c>
-      <c r="F54" s="4">
-        <v>15</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>147</v>
+      <c r="F54" s="7">
+        <v>15</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="J54" s="1">
         <v>231</v>
@@ -3423,24 +3900,24 @@
         <v>231,2910,-1310</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:18">
       <c r="C55" s="3">
         <v>5002</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="5">
+        <v>156</v>
+      </c>
+      <c r="E55" s="4">
         <v>50002</v>
       </c>
-      <c r="F55" s="4">
-        <v>15</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>114</v>
+      <c r="F55" s="7">
+        <v>15</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="J55" s="1">
         <v>15993</v>
@@ -3468,24 +3945,24 @@
         <v>15993,2910,-7254</v>
       </c>
     </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:18">
       <c r="C56" s="3">
         <v>5003</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E56" s="5">
+        <v>159</v>
+      </c>
+      <c r="E56" s="4">
         <v>50003</v>
       </c>
-      <c r="F56" s="4">
-        <v>15</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>149</v>
+      <c r="F56" s="7">
+        <v>15</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="J56" s="1">
         <v>15110</v>
@@ -3513,24 +3990,24 @@
         <v>15110,2910,10008</v>
       </c>
     </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:18">
       <c r="C57" s="3">
         <v>5004</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="5">
+        <v>162</v>
+      </c>
+      <c r="E57" s="4">
         <v>50004</v>
       </c>
-      <c r="F57" s="4">
-        <v>15</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>150</v>
+      <c r="F57" s="7">
+        <v>15</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="J57" s="1">
         <v>14457</v>
@@ -3558,24 +4035,24 @@
         <v>14457,2910,-7165</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:18">
       <c r="C58" s="3">
         <v>5005</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" s="5">
+        <v>165</v>
+      </c>
+      <c r="E58" s="4">
         <v>50005</v>
       </c>
-      <c r="F58" s="4">
-        <v>15</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>76</v>
+      <c r="F58" s="7">
+        <v>15</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="J58" s="1">
         <v>3289</v>
@@ -3603,24 +4080,24 @@
         <v>3289,2814,22929</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:18">
       <c r="C59" s="3">
         <v>5006</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E59" s="5">
+        <v>168</v>
+      </c>
+      <c r="E59" s="4">
         <v>50006</v>
       </c>
-      <c r="F59" s="4">
-        <v>15</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>151</v>
+      <c r="F59" s="7">
+        <v>15</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="J59" s="1">
         <v>38905</v>
@@ -3648,24 +4125,24 @@
         <v>38905,2910,14113</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:18">
       <c r="C60" s="3">
         <v>5007</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E60" s="5">
+        <v>171</v>
+      </c>
+      <c r="E60" s="4">
         <v>50007</v>
       </c>
-      <c r="F60" s="4">
-        <v>15</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>152</v>
+      <c r="F60" s="7">
+        <v>15</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="J60" s="1">
         <v>38443</v>
@@ -3693,24 +4170,24 @@
         <v>38443,2910,13759</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:18">
       <c r="C61" s="3">
         <v>5011</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E61" s="5">
+        <v>174</v>
+      </c>
+      <c r="E61" s="4">
         <v>50001</v>
       </c>
-      <c r="F61" s="4">
-        <v>15</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>115</v>
+      <c r="F61" s="7">
+        <v>15</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="J61" s="1">
         <v>7832</v>
@@ -3738,24 +4215,24 @@
         <v>7832,2910,-6881</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:18">
       <c r="C62" s="3">
         <v>5012</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="5">
+        <v>177</v>
+      </c>
+      <c r="E62" s="4">
         <v>50002</v>
       </c>
-      <c r="F62" s="4">
-        <v>15</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>154</v>
+      <c r="F62" s="7">
+        <v>15</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="J62" s="1">
         <v>13618</v>
@@ -3783,24 +4260,24 @@
         <v>13618,2910,6375</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:18">
       <c r="C63" s="3">
         <v>5013</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E63" s="5">
+        <v>180</v>
+      </c>
+      <c r="E63" s="4">
         <v>50003</v>
       </c>
-      <c r="F63" s="4">
-        <v>15</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>155</v>
+      <c r="F63" s="7">
+        <v>15</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="J63" s="1">
         <v>14432</v>
@@ -3828,24 +4305,24 @@
         <v>14432,2910,-6764</v>
       </c>
     </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:18">
       <c r="C64" s="3">
         <v>5014</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E64" s="5">
+        <v>183</v>
+      </c>
+      <c r="E64" s="4">
         <v>50004</v>
       </c>
-      <c r="F64" s="4">
-        <v>15</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>156</v>
+      <c r="F64" s="7">
+        <v>15</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="J64" s="1">
         <v>38484</v>
@@ -3873,24 +4350,24 @@
         <v>38484,2910,13914</v>
       </c>
     </row>
-    <row r="65" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:18">
       <c r="C65" s="3">
         <v>5015</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E65" s="5">
+        <v>186</v>
+      </c>
+      <c r="E65" s="4">
         <v>50005</v>
       </c>
-      <c r="F65" s="4">
-        <v>15</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>157</v>
+      <c r="F65" s="7">
+        <v>15</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="J65" s="1">
         <v>-5260</v>
@@ -3918,24 +4395,24 @@
         <v>-5260,2910,-7262</v>
       </c>
     </row>
-    <row r="66" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:18">
       <c r="C66" s="3">
         <v>5016</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E66" s="5">
+        <v>189</v>
+      </c>
+      <c r="E66" s="4">
         <v>50006</v>
       </c>
-      <c r="F66" s="5">
-        <v>15</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>158</v>
+      <c r="F66" s="4">
+        <v>15</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="J66" s="1">
         <v>6724</v>
@@ -3964,8 +4441,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/DungeonTransferConfig.xlsx
+++ b/Excel/DungeonTransferConfig.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90830BF3-0AB1-4255-A792-D63F952FD952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonTransferProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="192">
   <si>
     <t>Id</t>
   </si>
@@ -595,14 +601,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +614,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -621,168 +622,34 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,198 +664,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1020,7 +701,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,254 +731,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1316,78 +755,36 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1672,19 +1069,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
@@ -1694,7 +1091,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1734,7 +1131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1754,7 +1151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:8">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C6" s="3">
         <v>1001</v>
       </c>
@@ -1770,11 +1167,11 @@
       <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:18">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>1002</v>
       </c>
@@ -1790,7 +1187,7 @@
       <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="1">
@@ -1819,7 +1216,7 @@
         <v>15200,2930,-6764</v>
       </c>
     </row>
-    <row r="8" spans="3:18">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>1003</v>
       </c>
@@ -1835,7 +1232,7 @@
       <c r="G8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="1">
@@ -1864,7 +1261,7 @@
         <v>16292,2812,-7514</v>
       </c>
     </row>
-    <row r="9" spans="3:18">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>1004</v>
       </c>
@@ -1909,7 +1306,7 @@
         <v>15400,2800,-6336</v>
       </c>
     </row>
-    <row r="10" spans="3:18">
+    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>1005</v>
       </c>
@@ -1954,7 +1351,7 @@
         <v>14400,2800,-7200</v>
       </c>
     </row>
-    <row r="11" spans="3:18">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>1006</v>
       </c>
@@ -1999,7 +1396,7 @@
         <v>16800,2910,-6970</v>
       </c>
     </row>
-    <row r="12" spans="3:18">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>1007</v>
       </c>
@@ -2044,7 +1441,7 @@
         <v>14300,2800,-4400</v>
       </c>
     </row>
-    <row r="13" spans="3:18">
+    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>1008</v>
       </c>
@@ -2089,7 +1486,7 @@
         <v>14400,2800,-4300</v>
       </c>
     </row>
-    <row r="14" spans="3:18">
+    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>1009</v>
       </c>
@@ -2134,7 +1531,7 @@
         <v>7670,2938,-7206</v>
       </c>
     </row>
-    <row r="15" spans="3:18">
+    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>1010</v>
       </c>
@@ -2179,7 +1576,7 @@
         <v>15819,2914,3879</v>
       </c>
     </row>
-    <row r="16" spans="3:18">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>1011</v>
       </c>
@@ -2224,7 +1621,7 @@
         <v>25700,2800,-3300</v>
       </c>
     </row>
-    <row r="17" spans="3:18">
+    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>1012</v>
       </c>
@@ -2269,7 +1666,7 @@
         <v>20300,2800,-4900</v>
       </c>
     </row>
-    <row r="18" spans="3:18">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>1013</v>
       </c>
@@ -2314,7 +1711,7 @@
         <v>26100,2800,-7300</v>
       </c>
     </row>
-    <row r="19" spans="3:18">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>1014</v>
       </c>
@@ -2359,7 +1756,7 @@
         <v>25310,2829,-4375</v>
       </c>
     </row>
-    <row r="20" spans="3:18">
+    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>2001</v>
       </c>
@@ -2402,7 +1799,7 @@
         <v>14532,2895,-5271</v>
       </c>
     </row>
-    <row r="21" spans="3:18">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>2002</v>
       </c>
@@ -2447,7 +1844,7 @@
         <v>15259,2895,-9335</v>
       </c>
     </row>
-    <row r="22" spans="3:18">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>2003</v>
       </c>
@@ -2492,7 +1889,7 @@
         <v>15756,2895,-7717</v>
       </c>
     </row>
-    <row r="23" spans="3:18">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>2004</v>
       </c>
@@ -2537,7 +1934,7 @@
         <v>14613,2895,-7096</v>
       </c>
     </row>
-    <row r="24" spans="3:18">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>2005</v>
       </c>
@@ -2553,7 +1950,7 @@
       <c r="G24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="11" t="s">
         <v>68</v>
       </c>
       <c r="J24" s="1">
@@ -2582,7 +1979,7 @@
         <v>21779,2895,-2383</v>
       </c>
     </row>
-    <row r="25" spans="3:18">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>2011</v>
       </c>
@@ -2627,7 +2024,7 @@
         <v>2139,2895,-7394</v>
       </c>
     </row>
-    <row r="26" spans="3:18">
+    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>2012</v>
       </c>
@@ -2672,7 +2069,7 @@
         <v>5935,2895,-5220</v>
       </c>
     </row>
-    <row r="27" spans="3:18">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>2013</v>
       </c>
@@ -2717,7 +2114,7 @@
         <v>13404,2895,-7275</v>
       </c>
     </row>
-    <row r="28" spans="3:18">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>2014</v>
       </c>
@@ -2762,7 +2159,7 @@
         <v>18734,2814,3021</v>
       </c>
     </row>
-    <row r="29" spans="3:18">
+    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
         <v>3001</v>
       </c>
@@ -2805,7 +2202,7 @@
         <v>15369,2829,-4216</v>
       </c>
     </row>
-    <row r="30" spans="3:18">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C30" s="3">
         <v>3002</v>
       </c>
@@ -2850,7 +2247,7 @@
         <v>13898,2905,-4124</v>
       </c>
     </row>
-    <row r="31" spans="3:18">
+    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C31" s="3">
         <v>3003</v>
       </c>
@@ -2895,7 +2292,7 @@
         <v>14983,2910,-5997</v>
       </c>
     </row>
-    <row r="32" spans="3:18">
+    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C32" s="3">
         <v>3004</v>
       </c>
@@ -2940,7 +2337,7 @@
         <v>14000,2905,-4277</v>
       </c>
     </row>
-    <row r="33" spans="3:18">
+    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C33" s="3">
         <v>3005</v>
       </c>
@@ -2956,7 +2353,7 @@
       <c r="G33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="11" t="s">
         <v>94</v>
       </c>
       <c r="J33" s="1">
@@ -2985,7 +2382,7 @@
         <v>14372,2829,-7262</v>
       </c>
     </row>
-    <row r="34" spans="3:18">
+    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C34" s="3">
         <v>3006</v>
       </c>
@@ -3030,7 +2427,7 @@
         <v>14883,3213,-7290</v>
       </c>
     </row>
-    <row r="35" spans="3:18">
+    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C35" s="3">
         <v>3011</v>
       </c>
@@ -3075,7 +2472,7 @@
         <v>21591,2829,-5370</v>
       </c>
     </row>
-    <row r="36" spans="3:18">
+    <row r="36" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C36" s="3">
         <v>3012</v>
       </c>
@@ -3120,7 +2517,7 @@
         <v>23656,2905,-1746</v>
       </c>
     </row>
-    <row r="37" spans="3:18">
+    <row r="37" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C37" s="3">
         <v>3013</v>
       </c>
@@ -3165,7 +2562,7 @@
         <v>24258,2905,-1821</v>
       </c>
     </row>
-    <row r="38" spans="3:18">
+    <row r="38" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C38" s="3">
         <v>3014</v>
       </c>
@@ -3210,7 +2607,7 @@
         <v>16698,2910,3021</v>
       </c>
     </row>
-    <row r="39" spans="3:18">
+    <row r="39" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C39" s="3">
         <v>3015</v>
       </c>
@@ -3255,7 +2652,7 @@
         <v>25092,2910,-4487</v>
       </c>
     </row>
-    <row r="40" spans="3:8">
+    <row r="40" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C40" s="3">
         <v>3016</v>
       </c>
@@ -3275,11 +2672,11 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="3:18">
+    <row r="41" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C41" s="3">
         <v>4001</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>116</v>
       </c>
       <c r="E41" s="4">
@@ -3318,11 +2715,11 @@
         <v>18834,2910,-4755</v>
       </c>
     </row>
-    <row r="42" spans="3:18">
+    <row r="42" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C42" s="3">
         <v>4002</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>118</v>
       </c>
       <c r="E42" s="4">
@@ -3363,11 +2760,11 @@
         <v>17650,2910,-7510</v>
       </c>
     </row>
-    <row r="43" spans="3:18">
+    <row r="43" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C43" s="3">
         <v>4003</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>121</v>
       </c>
       <c r="E43" s="4">
@@ -3379,7 +2776,7 @@
       <c r="G43" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="11" t="s">
         <v>123</v>
       </c>
       <c r="J43" s="1">
@@ -3408,11 +2805,11 @@
         <v>17670,2829,-7520</v>
       </c>
     </row>
-    <row r="44" spans="3:18">
+    <row r="44" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C44" s="3">
         <v>4004</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>124</v>
       </c>
       <c r="E44" s="4">
@@ -3424,7 +2821,7 @@
       <c r="G44" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>126</v>
       </c>
       <c r="J44" s="1">
@@ -3453,11 +2850,11 @@
         <v>25645,2910,-6362</v>
       </c>
     </row>
-    <row r="45" spans="3:18">
+    <row r="45" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C45" s="3">
         <v>4005</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>127</v>
       </c>
       <c r="E45" s="4">
@@ -3469,7 +2866,7 @@
       <c r="G45" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="11" t="s">
         <v>129</v>
       </c>
       <c r="J45" s="1">
@@ -3498,11 +2895,11 @@
         <v>14301,2910,2212</v>
       </c>
     </row>
-    <row r="46" spans="3:18">
+    <row r="46" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C46" s="3">
         <v>4006</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>130</v>
       </c>
       <c r="E46" s="4">
@@ -3514,7 +2911,7 @@
       <c r="G46" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="10" t="s">
         <v>132</v>
       </c>
       <c r="J46" s="1">
@@ -3543,11 +2940,11 @@
         <v>14611,2829,-2951</v>
       </c>
     </row>
-    <row r="47" spans="3:18">
+    <row r="47" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C47" s="3">
         <v>4007</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>133</v>
       </c>
       <c r="E47" s="4">
@@ -3559,7 +2956,7 @@
       <c r="G47" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="H47" s="11" t="s">
+      <c r="H47" s="10" t="s">
         <v>135</v>
       </c>
       <c r="J47" s="1">
@@ -3588,11 +2985,11 @@
         <v>24409,2910,-11440</v>
       </c>
     </row>
-    <row r="48" spans="3:18">
+    <row r="48" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C48" s="3">
         <v>4011</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>136</v>
       </c>
       <c r="E48" s="4">
@@ -3601,7 +2998,7 @@
       <c r="F48" s="7">
         <v>15</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="12" t="s">
         <v>137</v>
       </c>
       <c r="H48" s="6" t="s">
@@ -3633,11 +3030,11 @@
         <v>22343,2910,2283</v>
       </c>
     </row>
-    <row r="49" spans="3:18">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C49" s="3">
         <v>4012</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>139</v>
       </c>
       <c r="E49" s="4">
@@ -3646,10 +3043,10 @@
       <c r="F49" s="7">
         <v>15</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="10" t="s">
         <v>141</v>
       </c>
       <c r="J49" s="1">
@@ -3678,11 +3075,11 @@
         <v>22823,2910,-4349</v>
       </c>
     </row>
-    <row r="50" spans="3:18">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C50" s="3">
         <v>4013</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>142</v>
       </c>
       <c r="E50" s="4">
@@ -3694,7 +3091,7 @@
       <c r="G50" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="10" t="s">
         <v>144</v>
       </c>
       <c r="J50" s="1">
@@ -3723,11 +3120,11 @@
         <v>15969,2829,-1212</v>
       </c>
     </row>
-    <row r="51" spans="3:18">
+    <row r="51" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C51" s="3">
         <v>4014</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>145</v>
       </c>
       <c r="E51" s="4">
@@ -3739,7 +3136,7 @@
       <c r="G51" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="10" t="s">
         <v>147</v>
       </c>
       <c r="J51" s="1">
@@ -3768,7 +3165,7 @@
         <v>15161,2910,-5520</v>
       </c>
     </row>
-    <row r="52" spans="3:18">
+    <row r="52" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C52" s="3">
         <v>4015</v>
       </c>
@@ -3784,7 +3181,7 @@
       <c r="G52" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H52" s="11" t="s">
+      <c r="H52" s="10" t="s">
         <v>150</v>
       </c>
       <c r="J52" s="1">
@@ -3813,11 +3210,11 @@
         <v>28843,2829,-6720</v>
       </c>
     </row>
-    <row r="53" spans="3:18">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C53" s="3">
         <v>4016</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>151</v>
       </c>
       <c r="E53" s="4">
@@ -3829,7 +3226,7 @@
       <c r="G53" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="10" t="s">
         <v>153</v>
       </c>
       <c r="J53" s="1">
@@ -3858,7 +3255,7 @@
         <v>20397,2910,3676</v>
       </c>
     </row>
-    <row r="54" spans="3:18">
+    <row r="54" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C54" s="3">
         <v>5001</v>
       </c>
@@ -3900,7 +3297,7 @@
         <v>231,2910,-1310</v>
       </c>
     </row>
-    <row r="55" spans="3:18">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C55" s="3">
         <v>5002</v>
       </c>
@@ -3945,7 +3342,7 @@
         <v>15993,2910,-7254</v>
       </c>
     </row>
-    <row r="56" spans="3:18">
+    <row r="56" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C56" s="3">
         <v>5003</v>
       </c>
@@ -3961,7 +3358,7 @@
       <c r="G56" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="10" t="s">
         <v>161</v>
       </c>
       <c r="J56" s="1">
@@ -3990,7 +3387,7 @@
         <v>15110,2910,10008</v>
       </c>
     </row>
-    <row r="57" spans="3:18">
+    <row r="57" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C57" s="3">
         <v>5004</v>
       </c>
@@ -4006,7 +3403,7 @@
       <c r="G57" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="H57" s="10" t="s">
         <v>164</v>
       </c>
       <c r="J57" s="1">
@@ -4035,7 +3432,7 @@
         <v>14457,2910,-7165</v>
       </c>
     </row>
-    <row r="58" spans="3:18">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C58" s="3">
         <v>5005</v>
       </c>
@@ -4051,7 +3448,7 @@
       <c r="G58" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="H58" s="11" t="s">
+      <c r="H58" s="10" t="s">
         <v>167</v>
       </c>
       <c r="J58" s="1">
@@ -4080,7 +3477,7 @@
         <v>3289,2814,22929</v>
       </c>
     </row>
-    <row r="59" spans="3:18">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C59" s="3">
         <v>5006</v>
       </c>
@@ -4096,7 +3493,7 @@
       <c r="G59" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="H59" s="11" t="s">
+      <c r="H59" s="10" t="s">
         <v>170</v>
       </c>
       <c r="J59" s="1">
@@ -4125,7 +3522,7 @@
         <v>38905,2910,14113</v>
       </c>
     </row>
-    <row r="60" spans="3:18">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C60" s="3">
         <v>5007</v>
       </c>
@@ -4141,7 +3538,7 @@
       <c r="G60" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H60" s="11" t="s">
+      <c r="H60" s="10" t="s">
         <v>173</v>
       </c>
       <c r="J60" s="1">
@@ -4170,7 +3567,7 @@
         <v>38443,2910,13759</v>
       </c>
     </row>
-    <row r="61" spans="3:18">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C61" s="3">
         <v>5011</v>
       </c>
@@ -4215,7 +3612,7 @@
         <v>7832,2910,-6881</v>
       </c>
     </row>
-    <row r="62" spans="3:18">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C62" s="3">
         <v>5012</v>
       </c>
@@ -4231,7 +3628,7 @@
       <c r="G62" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="H62" s="10" t="s">
         <v>179</v>
       </c>
       <c r="J62" s="1">
@@ -4260,7 +3657,7 @@
         <v>13618,2910,6375</v>
       </c>
     </row>
-    <row r="63" spans="3:18">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C63" s="3">
         <v>5013</v>
       </c>
@@ -4276,7 +3673,7 @@
       <c r="G63" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="H63" s="11" t="s">
+      <c r="H63" s="10" t="s">
         <v>182</v>
       </c>
       <c r="J63" s="1">
@@ -4305,7 +3702,7 @@
         <v>14432,2910,-6764</v>
       </c>
     </row>
-    <row r="64" spans="3:18">
+    <row r="64" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C64" s="3">
         <v>5014</v>
       </c>
@@ -4321,7 +3718,7 @@
       <c r="G64" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="H64" s="10" t="s">
         <v>185</v>
       </c>
       <c r="J64" s="1">
@@ -4350,7 +3747,7 @@
         <v>38484,2910,13914</v>
       </c>
     </row>
-    <row r="65" spans="3:18">
+    <row r="65" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C65" s="3">
         <v>5015</v>
       </c>
@@ -4366,7 +3763,7 @@
       <c r="G65" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H65" s="11" t="s">
+      <c r="H65" s="10" t="s">
         <v>188</v>
       </c>
       <c r="J65" s="1">
@@ -4395,7 +3792,7 @@
         <v>-5260,2910,-7262</v>
       </c>
     </row>
-    <row r="66" spans="3:18">
+    <row r="66" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C66" s="3">
         <v>5016</v>
       </c>
@@ -4411,7 +3808,7 @@
       <c r="G66" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="H66" s="11" t="s">
+      <c r="H66" s="10" t="s">
         <v>191</v>
       </c>
       <c r="J66" s="1">
@@ -4441,8 +3838,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/DungeonTransferConfig.xlsx
+++ b/Excel/DungeonTransferConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90830BF3-0AB1-4255-A792-D63F952FD952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4D893A-9FFD-4C99-A6E6-89C67847F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonTransferProto" sheetId="1" r:id="rId1"/>
@@ -1078,7 +1078,7 @@
   <dimension ref="C3:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1317,7 +1317,7 @@
         <v>10005</v>
       </c>
       <c r="F10" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>27</v>

--- a/Excel/DungeonTransferConfig.xlsx
+++ b/Excel/DungeonTransferConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4D893A-9FFD-4C99-A6E6-89C67847F6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E350FA-3104-4911-A0AD-673D8F2059F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonTransferProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="193">
   <si>
     <t>Id</t>
   </si>
@@ -596,6 +596,10 @@
   </si>
   <si>
     <t>39383,2607,14260</t>
+  </si>
+  <si>
+    <t>7738,-100,-5766</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1078,7 +1082,7 @@
   <dimension ref="C3:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1500,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>39</v>

--- a/Excel/DungeonTransferConfig.xlsx
+++ b/Excel/DungeonTransferConfig.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E350FA-3104-4911-A0AD-673D8F2059F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="14085"/>
   </bookViews>
   <sheets>
     <sheet name="DungeonTransferProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193">
   <si>
     <t>Id</t>
   </si>
@@ -139,6 +133,9 @@
     <t>矿洞一层去绿林小镇</t>
   </si>
   <si>
+    <t>7738,-100,-5766</t>
+  </si>
+  <si>
     <t>14793,2955,-7626</t>
   </si>
   <si>
@@ -181,7 +178,7 @@
     <t>石墓二层去石墓一层</t>
   </si>
   <si>
-    <t>25310,2911,-4375</t>
+    <t>24910,2911,-4356</t>
   </si>
   <si>
     <t>14094,2957,-4468</t>
@@ -596,17 +593,19 @@
   </si>
   <si>
     <t>39383,2607,14260</t>
-  </si>
-  <si>
-    <t>7738,-100,-5766</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,7 +617,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -626,14 +624,12 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -641,19 +637,155 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,12 +800,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -705,7 +1023,7 @@
         <color theme="1" tint="0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,12 +1053,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -759,36 +1319,78 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1073,19 +1675,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="C3:R66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
@@ -1095,7 +1697,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:8">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1737,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:8">
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1155,7 +1757,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:8">
       <c r="C6" s="3">
         <v>1001</v>
       </c>
@@ -1171,11 +1773,11 @@
       <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:18">
       <c r="C7" s="3">
         <v>1002</v>
       </c>
@@ -1191,7 +1793,7 @@
       <c r="G7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="1">
@@ -1220,7 +1822,7 @@
         <v>15200,2930,-6764</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:18">
       <c r="C8" s="3">
         <v>1003</v>
       </c>
@@ -1236,7 +1838,7 @@
       <c r="G8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="1">
@@ -1265,7 +1867,7 @@
         <v>16292,2812,-7514</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:18">
       <c r="C9" s="3">
         <v>1004</v>
       </c>
@@ -1310,7 +1912,7 @@
         <v>15400,2800,-6336</v>
       </c>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:18">
       <c r="C10" s="3">
         <v>1005</v>
       </c>
@@ -1355,7 +1957,7 @@
         <v>14400,2800,-7200</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:18">
       <c r="C11" s="3">
         <v>1006</v>
       </c>
@@ -1400,7 +2002,7 @@
         <v>16800,2910,-6970</v>
       </c>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:18">
       <c r="C12" s="3">
         <v>1007</v>
       </c>
@@ -1445,7 +2047,7 @@
         <v>14300,2800,-4400</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:18">
       <c r="C13" s="3">
         <v>1008</v>
       </c>
@@ -1490,7 +2092,7 @@
         <v>14400,2800,-4300</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:18">
       <c r="C14" s="3">
         <v>1009</v>
       </c>
@@ -1504,10 +2106,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J14" s="1">
         <v>7670</v>
@@ -1535,12 +2137,12 @@
         <v>7670,2938,-7206</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:18">
       <c r="C15" s="3">
         <v>1010</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" s="7">
         <v>10002</v>
@@ -1549,10 +2151,10 @@
         <v>1</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15" s="1">
         <v>15819</v>
@@ -1580,12 +2182,12 @@
         <v>15819,2914,3879</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:18">
       <c r="C16" s="3">
         <v>1011</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4">
         <v>10004</v>
@@ -1594,10 +2196,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J16" s="1">
         <v>25700</v>
@@ -1625,12 +2227,12 @@
         <v>25700,2800,-3300</v>
       </c>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:18">
       <c r="C17" s="3">
         <v>1012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="4">
         <v>10008</v>
@@ -1639,10 +2241,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" s="1">
         <v>20300</v>
@@ -1670,12 +2272,12 @@
         <v>20300,2800,-4900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:18">
       <c r="C18" s="3">
         <v>1013</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E18" s="4">
         <v>10004</v>
@@ -1684,10 +2286,10 @@
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J18" s="1">
         <v>26100</v>
@@ -1715,12 +2317,12 @@
         <v>26100,2800,-7300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:18">
       <c r="C19" s="3">
         <v>1014</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" s="4">
         <v>10007</v>
@@ -1729,10 +2331,10 @@
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J19" s="1">
         <v>25310</v>
@@ -1760,12 +2362,12 @@
         <v>25310,2829,-4375</v>
       </c>
     </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:18">
       <c r="C20" s="3">
         <v>2001</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" s="4">
         <v>20001</v>
@@ -1774,7 +2376,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H20" s="6"/>
       <c r="J20" s="1">
@@ -1803,12 +2405,12 @@
         <v>14532,2895,-5271</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:18">
       <c r="C21" s="3">
         <v>2002</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E21" s="4">
         <v>20002</v>
@@ -1817,10 +2419,10 @@
         <v>15</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J21" s="1">
         <v>15259</v>
@@ -1848,12 +2450,12 @@
         <v>15259,2895,-9335</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:18">
       <c r="C22" s="3">
         <v>2003</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E22" s="4">
         <v>20003</v>
@@ -1862,10 +2464,10 @@
         <v>15</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J22" s="1">
         <v>15756</v>
@@ -1893,12 +2495,12 @@
         <v>15756,2895,-7717</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:18">
       <c r="C23" s="3">
         <v>2004</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E23" s="4">
         <v>20004</v>
@@ -1907,10 +2509,10 @@
         <v>15</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J23" s="1">
         <v>14613</v>
@@ -1938,12 +2540,12 @@
         <v>14613,2895,-7096</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:18">
       <c r="C24" s="3">
         <v>2005</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E24" s="4">
         <v>20005</v>
@@ -1952,10 +2554,10 @@
         <v>15</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="11" t="s">
         <v>68</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="J24" s="1">
         <v>21779</v>
@@ -1983,12 +2585,12 @@
         <v>21779,2895,-2383</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:18">
       <c r="C25" s="3">
         <v>2011</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" s="4">
         <v>20001</v>
@@ -1997,10 +2599,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J25" s="1">
         <v>2139</v>
@@ -2028,12 +2630,12 @@
         <v>2139,2895,-7394</v>
       </c>
     </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:18">
       <c r="C26" s="3">
         <v>2012</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E26" s="4">
         <v>20002</v>
@@ -2042,10 +2644,10 @@
         <v>15</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J26" s="1">
         <v>5935</v>
@@ -2073,12 +2675,12 @@
         <v>5935,2895,-5220</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:18">
       <c r="C27" s="3">
         <v>2013</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E27" s="4">
         <v>20001</v>
@@ -2087,10 +2689,10 @@
         <v>15</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J27" s="1">
         <v>13404</v>
@@ -2118,12 +2720,12 @@
         <v>13404,2895,-7275</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:18">
       <c r="C28" s="3">
         <v>2014</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28" s="4">
         <v>20004</v>
@@ -2132,10 +2734,10 @@
         <v>15</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J28" s="1">
         <v>18734</v>
@@ -2163,12 +2765,12 @@
         <v>18734,2814,3021</v>
       </c>
     </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:18">
       <c r="C29" s="3">
         <v>3001</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E29" s="4">
         <v>30001</v>
@@ -2177,7 +2779,7 @@
         <v>15</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H29" s="6"/>
       <c r="J29" s="1">
@@ -2206,12 +2808,12 @@
         <v>15369,2829,-4216</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:18">
       <c r="C30" s="3">
         <v>3002</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E30" s="4">
         <v>30002</v>
@@ -2220,10 +2822,10 @@
         <v>15</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J30" s="1">
         <v>13898</v>
@@ -2251,12 +2853,12 @@
         <v>13898,2905,-4124</v>
       </c>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:18">
       <c r="C31" s="3">
         <v>3003</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E31" s="4">
         <v>30003</v>
@@ -2265,10 +2867,10 @@
         <v>15</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J31" s="1">
         <v>14983</v>
@@ -2296,12 +2898,12 @@
         <v>14983,2910,-5997</v>
       </c>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:18">
       <c r="C32" s="3">
         <v>3004</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E32" s="4">
         <v>30004</v>
@@ -2310,10 +2912,10 @@
         <v>15</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J32" s="1">
         <v>14000</v>
@@ -2341,12 +2943,12 @@
         <v>14000,2905,-4277</v>
       </c>
     </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:18">
       <c r="C33" s="3">
         <v>3005</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E33" s="4">
         <v>30005</v>
@@ -2355,10 +2957,10 @@
         <v>15</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H33" s="11" t="s">
         <v>94</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="J33" s="1">
         <v>14372</v>
@@ -2386,12 +2988,12 @@
         <v>14372,2829,-7262</v>
       </c>
     </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:18">
       <c r="C34" s="3">
         <v>3006</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E34" s="4">
         <v>30006</v>
@@ -2400,10 +3002,10 @@
         <v>15</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J34" s="1">
         <v>14883</v>
@@ -2431,12 +3033,12 @@
         <v>14883,3213,-7290</v>
       </c>
     </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:18">
       <c r="C35" s="3">
         <v>3011</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E35" s="4">
         <v>30001</v>
@@ -2445,10 +3047,10 @@
         <v>15</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J35" s="1">
         <v>21591</v>
@@ -2476,12 +3078,12 @@
         <v>21591,2829,-5370</v>
       </c>
     </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:18">
       <c r="C36" s="3">
         <v>3012</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E36" s="4">
         <v>30002</v>
@@ -2490,10 +3092,10 @@
         <v>15</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J36" s="1">
         <v>23656</v>
@@ -2521,12 +3123,12 @@
         <v>23656,2905,-1746</v>
       </c>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:18">
       <c r="C37" s="3">
         <v>3013</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E37" s="4">
         <v>30002</v>
@@ -2535,10 +3137,10 @@
         <v>15</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J37" s="1">
         <v>24258</v>
@@ -2566,12 +3168,12 @@
         <v>24258,2905,-1821</v>
       </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:18">
       <c r="C38" s="3">
         <v>3014</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E38" s="4">
         <v>30004</v>
@@ -2580,10 +3182,10 @@
         <v>15</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J38" s="1">
         <v>16698</v>
@@ -2611,12 +3213,12 @@
         <v>16698,2910,3021</v>
       </c>
     </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:18">
       <c r="C39" s="3">
         <v>3015</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E39" s="4">
         <v>30005</v>
@@ -2625,10 +3227,10 @@
         <v>15</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J39" s="1">
         <v>25092</v>
@@ -2656,12 +3258,12 @@
         <v>25092,2910,-4487</v>
       </c>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:8">
       <c r="C40" s="3">
         <v>3016</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E40" s="4">
         <v>30006</v>
@@ -2670,18 +3272,18 @@
         <v>16</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="3:18">
       <c r="C41" s="3">
         <v>4001</v>
       </c>
-      <c r="D41" s="8" t="s">
-        <v>116</v>
+      <c r="D41" s="9" t="s">
+        <v>117</v>
       </c>
       <c r="E41" s="4">
         <v>40001</v>
@@ -2690,7 +3292,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H41" s="6"/>
       <c r="J41" s="1">
@@ -2719,12 +3321,12 @@
         <v>18834,2910,-4755</v>
       </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:18">
       <c r="C42" s="3">
         <v>4002</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>118</v>
+      <c r="D42" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="E42" s="4">
         <v>40002</v>
@@ -2733,10 +3335,10 @@
         <v>15</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J42" s="1">
         <v>17650</v>
@@ -2764,12 +3366,12 @@
         <v>17650,2910,-7510</v>
       </c>
     </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:18">
       <c r="C43" s="3">
         <v>4003</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>121</v>
+      <c r="D43" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="E43" s="4">
         <v>40003</v>
@@ -2778,10 +3380,10 @@
         <v>15</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H43" s="11" t="s">
         <v>123</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="J43" s="1">
         <v>17670</v>
@@ -2809,12 +3411,12 @@
         <v>17670,2829,-7520</v>
       </c>
     </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:18">
       <c r="C44" s="3">
         <v>4004</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>124</v>
+      <c r="D44" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="E44" s="4">
         <v>40004</v>
@@ -2823,10 +3425,10 @@
         <v>15</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H44" s="10" t="s">
         <v>126</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="J44" s="1">
         <v>25645</v>
@@ -2854,12 +3456,12 @@
         <v>25645,2910,-6362</v>
       </c>
     </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:18">
       <c r="C45" s="3">
         <v>4005</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>127</v>
+      <c r="D45" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="E45" s="4">
         <v>40005</v>
@@ -2868,10 +3470,10 @@
         <v>15</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="H45" s="11" t="s">
         <v>129</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="J45" s="1">
         <v>14301</v>
@@ -2899,12 +3501,12 @@
         <v>14301,2910,2212</v>
       </c>
     </row>
-    <row r="46" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:18">
       <c r="C46" s="3">
         <v>4006</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>130</v>
+      <c r="D46" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="E46" s="4">
         <v>40006</v>
@@ -2913,10 +3515,10 @@
         <v>15</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H46" s="10" t="s">
         <v>132</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>133</v>
       </c>
       <c r="J46" s="1">
         <v>14611</v>
@@ -2944,12 +3546,12 @@
         <v>14611,2829,-2951</v>
       </c>
     </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:18">
       <c r="C47" s="3">
         <v>4007</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>133</v>
+      <c r="D47" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="E47" s="4">
         <v>40007</v>
@@ -2958,10 +3560,10 @@
         <v>15</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="H47" s="10" t="s">
         <v>135</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="J47" s="1">
         <v>24409</v>
@@ -2989,12 +3591,12 @@
         <v>24409,2910,-11440</v>
       </c>
     </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:18">
       <c r="C48" s="3">
         <v>4011</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>136</v>
+      <c r="D48" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="E48" s="4">
         <v>40001</v>
@@ -3002,11 +3604,11 @@
       <c r="F48" s="7">
         <v>15</v>
       </c>
-      <c r="G48" s="12" t="s">
-        <v>137</v>
+      <c r="G48" s="13" t="s">
+        <v>138</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J48" s="1">
         <v>22343</v>
@@ -3034,12 +3636,12 @@
         <v>22343,2910,2283</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:18">
       <c r="C49" s="3">
         <v>4012</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>139</v>
+      <c r="D49" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="E49" s="4">
         <v>40001</v>
@@ -3047,11 +3649,11 @@
       <c r="F49" s="7">
         <v>15</v>
       </c>
-      <c r="G49" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="H49" s="10" t="s">
+      <c r="G49" s="13" t="s">
         <v>141</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>142</v>
       </c>
       <c r="J49" s="1">
         <v>22823</v>
@@ -3079,12 +3681,12 @@
         <v>22823,2910,-4349</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:18">
       <c r="C50" s="3">
         <v>4013</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>142</v>
+      <c r="D50" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="E50" s="4">
         <v>40003</v>
@@ -3093,10 +3695,10 @@
         <v>15</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H50" s="10" t="s">
         <v>144</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>145</v>
       </c>
       <c r="J50" s="1">
         <v>15969</v>
@@ -3124,12 +3726,12 @@
         <v>15969,2829,-1212</v>
       </c>
     </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:18">
       <c r="C51" s="3">
         <v>4014</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>145</v>
+      <c r="D51" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="E51" s="4">
         <v>40004</v>
@@ -3138,10 +3740,10 @@
         <v>15</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="H51" s="10" t="s">
         <v>147</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="J51" s="1">
         <v>15161</v>
@@ -3169,12 +3771,12 @@
         <v>15161,2910,-5520</v>
       </c>
     </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:18">
       <c r="C52" s="3">
         <v>4015</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E52" s="4">
         <v>40006</v>
@@ -3183,10 +3785,10 @@
         <v>15</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H52" s="10" t="s">
         <v>150</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>151</v>
       </c>
       <c r="J52" s="1">
         <v>28843</v>
@@ -3214,12 +3816,12 @@
         <v>28843,2829,-6720</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:18">
       <c r="C53" s="3">
         <v>4016</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>151</v>
+      <c r="D53" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="E53" s="4">
         <v>40002</v>
@@ -3228,10 +3830,10 @@
         <v>15</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H53" s="10" t="s">
         <v>153</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>154</v>
       </c>
       <c r="J53" s="1">
         <v>20397</v>
@@ -3259,12 +3861,12 @@
         <v>20397,2910,3676</v>
       </c>
     </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:18">
       <c r="C54" s="3">
         <v>5001</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E54" s="4">
         <v>50001</v>
@@ -3273,7 +3875,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J54" s="1">
         <v>231</v>
@@ -3301,12 +3903,12 @@
         <v>231,2910,-1310</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:18">
       <c r="C55" s="3">
         <v>5002</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E55" s="4">
         <v>50002</v>
@@ -3315,10 +3917,10 @@
         <v>15</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J55" s="1">
         <v>15993</v>
@@ -3346,12 +3948,12 @@
         <v>15993,2910,-7254</v>
       </c>
     </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:18">
       <c r="C56" s="3">
         <v>5003</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E56" s="4">
         <v>50003</v>
@@ -3360,10 +3962,10 @@
         <v>15</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H56" s="10" t="s">
         <v>161</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>162</v>
       </c>
       <c r="J56" s="1">
         <v>15110</v>
@@ -3391,12 +3993,12 @@
         <v>15110,2910,10008</v>
       </c>
     </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:18">
       <c r="C57" s="3">
         <v>5004</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E57" s="4">
         <v>50004</v>
@@ -3405,10 +4007,10 @@
         <v>15</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="H57" s="10" t="s">
         <v>164</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>165</v>
       </c>
       <c r="J57" s="1">
         <v>14457</v>
@@ -3436,12 +4038,12 @@
         <v>14457,2910,-7165</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:18">
       <c r="C58" s="3">
         <v>5005</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E58" s="4">
         <v>50005</v>
@@ -3450,10 +4052,10 @@
         <v>15</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="H58" s="10" t="s">
         <v>167</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>168</v>
       </c>
       <c r="J58" s="1">
         <v>3289</v>
@@ -3481,12 +4083,12 @@
         <v>3289,2814,22929</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:18">
       <c r="C59" s="3">
         <v>5006</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E59" s="4">
         <v>50006</v>
@@ -3495,10 +4097,10 @@
         <v>15</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H59" s="10" t="s">
         <v>170</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="J59" s="1">
         <v>38905</v>
@@ -3526,12 +4128,12 @@
         <v>38905,2910,14113</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:18">
       <c r="C60" s="3">
         <v>5007</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E60" s="4">
         <v>50007</v>
@@ -3540,10 +4142,10 @@
         <v>15</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="H60" s="10" t="s">
         <v>173</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="J60" s="1">
         <v>38443</v>
@@ -3571,12 +4173,12 @@
         <v>38443,2910,13759</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:18">
       <c r="C61" s="3">
         <v>5011</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E61" s="4">
         <v>50001</v>
@@ -3585,10 +4187,10 @@
         <v>15</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J61" s="1">
         <v>7832</v>
@@ -3616,12 +4218,12 @@
         <v>7832,2910,-6881</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:18">
       <c r="C62" s="3">
         <v>5012</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E62" s="4">
         <v>50002</v>
@@ -3630,10 +4232,10 @@
         <v>15</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H62" s="10" t="s">
         <v>179</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="J62" s="1">
         <v>13618</v>
@@ -3661,12 +4263,12 @@
         <v>13618,2910,6375</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:18">
       <c r="C63" s="3">
         <v>5013</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E63" s="4">
         <v>50003</v>
@@ -3675,10 +4277,10 @@
         <v>15</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="H63" s="10" t="s">
         <v>182</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="J63" s="1">
         <v>14432</v>
@@ -3706,12 +4308,12 @@
         <v>14432,2910,-6764</v>
       </c>
     </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:18">
       <c r="C64" s="3">
         <v>5014</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E64" s="4">
         <v>50004</v>
@@ -3720,10 +4322,10 @@
         <v>15</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="H64" s="10" t="s">
         <v>185</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>186</v>
       </c>
       <c r="J64" s="1">
         <v>38484</v>
@@ -3751,12 +4353,12 @@
         <v>38484,2910,13914</v>
       </c>
     </row>
-    <row r="65" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:18">
       <c r="C65" s="3">
         <v>5015</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E65" s="4">
         <v>50005</v>
@@ -3765,10 +4367,10 @@
         <v>15</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="H65" s="10" t="s">
         <v>188</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="J65" s="1">
         <v>-5260</v>
@@ -3796,12 +4398,12 @@
         <v>-5260,2910,-7262</v>
       </c>
     </row>
-    <row r="66" spans="3:18" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:18">
       <c r="C66" s="3">
         <v>5016</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E66" s="4">
         <v>50006</v>
@@ -3810,10 +4412,10 @@
         <v>15</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="H66" s="10" t="s">
         <v>191</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>192</v>
       </c>
       <c r="J66" s="1">
         <v>6724</v>
@@ -3842,8 +4444,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>